--- a/data/trans_orig/P36B11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6AA705D-0DF3-4EFA-8449-BF03D41DDFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA6AAAD1-0FFD-43B9-ACC0-8DEEEED7F505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD8DA479-A1F4-43DC-A6B7-A294E56B46AE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B3D71CF8-9C2E-45AF-973D-5FBE32347630}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="989">
   <si>
     <t>Población según la frecuencia de consumo de pescado en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -1225,7 +1225,124 @@
     <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
   </si>
   <si>
     <t>0,74%</t>
@@ -1441,1368 +1558,1347 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
   </si>
   <si>
     <t>34,2%</t>
   </si>
   <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pescado en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
     <t>31,85%</t>
   </si>
   <si>
@@ -2843,9 +2939,6 @@
   </si>
   <si>
     <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
   </si>
   <si>
     <t>9,57%</t>
@@ -3323,7 +3416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88FFB56-1533-40F5-BD8D-74054D599C27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32F5760-1564-4550-AD60-508E16F6F704}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6025,7 +6118,7 @@
         <v>1789</v>
       </c>
       <c r="I54" s="7">
-        <v>1831585</v>
+        <v>1831584</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>377</v>
@@ -6178,7 +6271,7 @@
         <v>3295</v>
       </c>
       <c r="I57" s="7">
-        <v>3377144</v>
+        <v>3377143</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>60</v>
@@ -6231,7 +6324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9407D128-68FF-48FB-9C3F-B50622E17160}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62132305-DC4E-43D1-B514-A49D9A008856}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6349,43 +6442,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11933</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>395</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12513</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="N4" s="7">
+        <v>24446</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>395</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,43 +6493,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D5" s="7">
+        <v>41817</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="I5" s="7">
+        <v>30446</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="N5" s="7">
+        <v>72263</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,43 +6544,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>132</v>
+      </c>
+      <c r="D6" s="7">
+        <v>135924</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="I6" s="7">
+        <v>125057</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>246</v>
+      </c>
+      <c r="N6" s="7">
+        <v>260981</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,43 +6595,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D7" s="7">
+        <v>90678</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="I7" s="7">
+        <v>101409</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>171</v>
+      </c>
+      <c r="N7" s="7">
+        <v>192087</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>395</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,43 +6646,49 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D8" s="7">
+        <v>14386</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="I8" s="7">
+        <v>16728</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="N8" s="7">
+        <v>31114</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>395</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>395</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,43 +6697,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D9" s="7">
+        <v>294738</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>395</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>395</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>395</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="I9" s="7">
+        <v>286153</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>395</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>395</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>395</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>537</v>
+      </c>
+      <c r="N9" s="7">
+        <v>580891</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>395</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>395</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>395</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,10 +6759,10 @@
         <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -6645,10 +6774,10 @@
         <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -6657,13 +6786,13 @@
         <v>20522</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,13 +6807,13 @@
         <v>41595</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>403</v>
+        <v>442</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -6693,10 +6822,10 @@
         <v>34599</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>165</v>
@@ -6708,13 +6837,13 @@
         <v>76194</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,13 +6858,13 @@
         <v>267292</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="H12" s="7">
         <v>269</v>
@@ -6744,13 +6873,13 @@
         <v>292616</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="M12" s="7">
         <v>527</v>
@@ -6759,13 +6888,13 @@
         <v>559907</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,13 +6909,13 @@
         <v>184190</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -6795,13 +6924,13 @@
         <v>181424</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="M13" s="7">
         <v>328</v>
@@ -6810,13 +6939,13 @@
         <v>365615</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>428</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6831,7 +6960,7 @@
         <v>1988</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>145</v>
@@ -6846,13 +6975,13 @@
         <v>2010</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -6861,13 +6990,13 @@
         <v>3998</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,13 +7064,13 @@
         <v>1007</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6968,10 +7097,10 @@
         <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,13 +7115,13 @@
         <v>44203</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -7001,13 +7130,13 @@
         <v>38342</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -7016,13 +7145,13 @@
         <v>82546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7037,13 +7166,13 @@
         <v>215206</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="H18" s="7">
         <v>195</v>
@@ -7052,13 +7181,13 @@
         <v>212406</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="M18" s="7">
         <v>405</v>
@@ -7067,13 +7196,13 @@
         <v>427612</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7088,13 +7217,13 @@
         <v>62607</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="H19" s="7">
         <v>81</v>
@@ -7103,13 +7232,13 @@
         <v>85251</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="M19" s="7">
         <v>144</v>
@@ -7118,13 +7247,13 @@
         <v>147859</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,13 +7268,13 @@
         <v>1022</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7172,10 +7301,10 @@
         <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,49 +7366,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>20277</v>
+        <v>8344</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>314</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>468</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>13590</v>
+        <v>1077</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>469</v>
+        <v>507</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>470</v>
+        <v>508</v>
       </c>
       <c r="M22" s="7">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="N22" s="7">
-        <v>33868</v>
+        <v>9422</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>473</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7288,49 +7417,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D23" s="7">
-        <v>69042</v>
+        <v>27225</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>510</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>474</v>
+        <v>123</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="H23" s="7">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I23" s="7">
-        <v>59870</v>
+        <v>29424</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="M23" s="7">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="N23" s="7">
-        <v>128912</v>
+        <v>56649</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>332</v>
+        <v>516</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,49 +7468,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>328</v>
+        <v>196</v>
       </c>
       <c r="D24" s="7">
-        <v>349928</v>
+        <v>214004</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
       <c r="H24" s="7">
-        <v>326</v>
+        <v>212</v>
       </c>
       <c r="I24" s="7">
-        <v>345235</v>
+        <v>220179</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>36</v>
+        <v>523</v>
       </c>
       <c r="M24" s="7">
-        <v>654</v>
+        <v>408</v>
       </c>
       <c r="N24" s="7">
-        <v>695164</v>
+        <v>434183</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>486</v>
+        <v>524</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>487</v>
+        <v>525</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>488</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,49 +7519,49 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="D25" s="7">
-        <v>204323</v>
+        <v>113646</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>489</v>
+        <v>527</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="H25" s="7">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="I25" s="7">
-        <v>231044</v>
+        <v>129635</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>494</v>
+        <v>532</v>
       </c>
       <c r="M25" s="7">
-        <v>402</v>
+        <v>231</v>
       </c>
       <c r="N25" s="7">
-        <v>435367</v>
+        <v>243281</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>495</v>
+        <v>533</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7441,49 +7570,49 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D26" s="7">
-        <v>25149</v>
+        <v>10763</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>499</v>
+        <v>112</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
       <c r="H26" s="7">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I26" s="7">
-        <v>23455</v>
+        <v>6727</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>357</v>
+        <v>100</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="M26" s="7">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="N26" s="7">
-        <v>48604</v>
+        <v>17490</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>502</v>
+        <v>396</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>503</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>115</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7492,10 +7621,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D27" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7507,10 +7636,10 @@
         <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>624</v>
+        <v>369</v>
       </c>
       <c r="I27" s="7">
-        <v>673194</v>
+        <v>387042</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7522,10 +7651,10 @@
         <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>1250</v>
+        <v>713</v>
       </c>
       <c r="N27" s="7">
-        <v>1341914</v>
+        <v>761024</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -7554,10 +7683,10 @@
         <v>14</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -7566,13 +7695,13 @@
         <v>3840</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>148</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -7584,7 +7713,7 @@
         <v>276</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>59</v>
@@ -7602,13 +7731,13 @@
         <v>29710</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>508</v>
+        <v>545</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -7620,7 +7749,7 @@
         <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>511</v>
+        <v>548</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>248</v>
@@ -7635,10 +7764,10 @@
         <v>373</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,13 +7782,13 @@
         <v>115506</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>516</v>
+        <v>553</v>
       </c>
       <c r="H30" s="7">
         <v>118</v>
@@ -7668,13 +7797,13 @@
         <v>123599</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>517</v>
+        <v>554</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>519</v>
+        <v>556</v>
       </c>
       <c r="M30" s="7">
         <v>225</v>
@@ -7683,13 +7812,13 @@
         <v>239105</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>521</v>
+        <v>558</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>522</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,13 +7833,13 @@
         <v>56584</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="H31" s="7">
         <v>78</v>
@@ -7719,13 +7848,13 @@
         <v>79598</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>526</v>
+        <v>563</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>527</v>
+        <v>564</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="M31" s="7">
         <v>132</v>
@@ -7734,10 +7863,10 @@
         <v>136182</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>529</v>
+        <v>566</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>530</v>
+        <v>567</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>139</v>
@@ -7755,13 +7884,13 @@
         <v>7373</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>532</v>
+        <v>569</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>533</v>
+        <v>570</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -7770,13 +7899,13 @@
         <v>4680</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>534</v>
+        <v>571</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="M32" s="7">
         <v>11</v>
@@ -7785,13 +7914,13 @@
         <v>12053</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>536</v>
+        <v>573</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>537</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,13 +7988,13 @@
         <v>2918</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>538</v>
+        <v>575</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -7874,13 +8003,13 @@
         <v>987</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>145</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -7889,10 +8018,10 @@
         <v>3905</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>543</v>
+        <v>580</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>324</v>
@@ -7910,13 +8039,13 @@
         <v>39056</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>544</v>
+        <v>581</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>545</v>
+        <v>582</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>546</v>
+        <v>583</v>
       </c>
       <c r="H35" s="7">
         <v>31</v>
@@ -7925,13 +8054,13 @@
         <v>32707</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>547</v>
+        <v>584</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>548</v>
+        <v>585</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>549</v>
+        <v>586</v>
       </c>
       <c r="M35" s="7">
         <v>70</v>
@@ -7940,13 +8069,13 @@
         <v>71763</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>475</v>
+        <v>587</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7961,13 +8090,13 @@
         <v>161537</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
       <c r="H36" s="7">
         <v>160</v>
@@ -7976,13 +8105,13 @@
         <v>166169</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>555</v>
+        <v>593</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>382</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>556</v>
+        <v>594</v>
       </c>
       <c r="M36" s="7">
         <v>312</v>
@@ -7991,13 +8120,13 @@
         <v>327705</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>557</v>
+        <v>595</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>558</v>
+        <v>596</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>559</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8015,10 +8144,10 @@
         <v>265</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>560</v>
+        <v>598</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>561</v>
+        <v>599</v>
       </c>
       <c r="H37" s="7">
         <v>69</v>
@@ -8027,13 +8156,13 @@
         <v>72198</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>562</v>
+        <v>600</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>563</v>
+        <v>601</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="M37" s="7">
         <v>132</v>
@@ -8042,13 +8171,13 @@
         <v>138725</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>565</v>
+        <v>603</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>566</v>
+        <v>604</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>567</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8063,7 +8192,7 @@
         <v>2956</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>568</v>
+        <v>606</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>275</v>
@@ -8078,13 +8207,13 @@
         <v>6994</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>569</v>
+        <v>607</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>568</v>
+        <v>606</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>570</v>
+        <v>608</v>
       </c>
       <c r="M38" s="7">
         <v>10</v>
@@ -8096,10 +8225,10 @@
         <v>196</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>571</v>
+        <v>609</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>572</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,13 +8311,13 @@
         <v>13490</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>573</v>
+        <v>611</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>574</v>
+        <v>612</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>575</v>
+        <v>613</v>
       </c>
       <c r="M40" s="7">
         <v>18</v>
@@ -8197,13 +8326,13 @@
         <v>20277</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>576</v>
+        <v>614</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>577</v>
+        <v>615</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8218,13 +8347,13 @@
         <v>73037</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>578</v>
+        <v>616</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>579</v>
+        <v>617</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>580</v>
+        <v>618</v>
       </c>
       <c r="H41" s="7">
         <v>49</v>
@@ -8233,13 +8362,13 @@
         <v>52534</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>582</v>
+        <v>619</v>
       </c>
       <c r="M41" s="7">
         <v>116</v>
@@ -8248,13 +8377,13 @@
         <v>125571</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>583</v>
+        <v>620</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>584</v>
+        <v>621</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>578</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8269,13 +8398,13 @@
         <v>347290</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>585</v>
+        <v>622</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>586</v>
+        <v>623</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>587</v>
+        <v>624</v>
       </c>
       <c r="H42" s="7">
         <v>345</v>
@@ -8284,13 +8413,13 @@
         <v>377848</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>589</v>
+        <v>626</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="M42" s="7">
         <v>668</v>
@@ -8299,13 +8428,13 @@
         <v>725138</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>591</v>
+        <v>628</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>592</v>
+        <v>629</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8320,13 +8449,13 @@
         <v>214426</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
       <c r="H43" s="7">
         <v>208</v>
@@ -8335,13 +8464,13 @@
         <v>224919</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>597</v>
+        <v>634</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>598</v>
+        <v>635</v>
       </c>
       <c r="M43" s="7">
         <v>410</v>
@@ -8350,13 +8479,13 @@
         <v>439345</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>599</v>
+        <v>636</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>600</v>
+        <v>637</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8371,13 +8500,13 @@
         <v>17136</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>601</v>
+        <v>638</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>576</v>
+        <v>614</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>602</v>
+        <v>639</v>
       </c>
       <c r="H44" s="7">
         <v>19</v>
@@ -8386,10 +8515,10 @@
         <v>22148</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>603</v>
+        <v>640</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>469</v>
+        <v>641</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>353</v>
@@ -8407,7 +8536,7 @@
         <v>285</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>604</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8478,10 +8607,10 @@
         <v>119</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>606</v>
+        <v>644</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -8505,7 +8634,7 @@
         <v>6210</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>193</v>
@@ -8526,13 +8655,13 @@
         <v>30196</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>607</v>
+        <v>645</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>608</v>
+        <v>429</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>609</v>
+        <v>646</v>
       </c>
       <c r="H47" s="7">
         <v>32</v>
@@ -8541,13 +8670,13 @@
         <v>34242</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>610</v>
+        <v>647</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>611</v>
+        <v>648</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>612</v>
+        <v>649</v>
       </c>
       <c r="M47" s="7">
         <v>61</v>
@@ -8559,10 +8688,10 @@
         <v>19</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>613</v>
+        <v>650</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>614</v>
+        <v>651</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8577,13 +8706,13 @@
         <v>323532</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>615</v>
+        <v>652</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>616</v>
+        <v>653</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>617</v>
+        <v>654</v>
       </c>
       <c r="H48" s="7">
         <v>308</v>
@@ -8592,13 +8721,13 @@
         <v>333956</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>618</v>
+        <v>655</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>619</v>
+        <v>656</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>620</v>
+        <v>657</v>
       </c>
       <c r="M48" s="7">
         <v>610</v>
@@ -8607,13 +8736,13 @@
         <v>657489</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>622</v>
+        <v>659</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>623</v>
+        <v>660</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8628,13 +8757,13 @@
         <v>380705</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>624</v>
+        <v>661</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>626</v>
+        <v>663</v>
       </c>
       <c r="H49" s="7">
         <v>380</v>
@@ -8643,13 +8772,13 @@
         <v>415942</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>627</v>
+        <v>664</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>628</v>
+        <v>665</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>629</v>
+        <v>666</v>
       </c>
       <c r="M49" s="7">
         <v>727</v>
@@ -8658,13 +8787,13 @@
         <v>796647</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>630</v>
+        <v>667</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>631</v>
+        <v>668</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>632</v>
+        <v>669</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8682,10 +8811,10 @@
         <v>356</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>633</v>
+        <v>670</v>
       </c>
       <c r="H50" s="7">
         <v>36</v>
@@ -8694,13 +8823,13 @@
         <v>38714</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>634</v>
+        <v>671</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>290</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>635</v>
+        <v>672</v>
       </c>
       <c r="M50" s="7">
         <v>70</v>
@@ -8712,10 +8841,10 @@
         <v>123</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>636</v>
+        <v>673</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>637</v>
+        <v>674</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8783,10 +8912,10 @@
         <v>49085</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>638</v>
+        <v>675</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>639</v>
+        <v>676</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>106</v>
@@ -8798,13 +8927,13 @@
         <v>46047</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>640</v>
+        <v>677</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>313</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>641</v>
+        <v>678</v>
       </c>
       <c r="M52" s="7">
         <v>88</v>
@@ -8813,10 +8942,10 @@
         <v>95132</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>642</v>
+        <v>679</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>68</v>
@@ -8834,13 +8963,13 @@
         <v>326841</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>643</v>
+        <v>680</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>644</v>
+        <v>681</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>645</v>
+        <v>682</v>
       </c>
       <c r="H53" s="7">
         <v>243</v>
@@ -8849,13 +8978,13 @@
         <v>260167</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>646</v>
+        <v>683</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>647</v>
+        <v>684</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>648</v>
+        <v>685</v>
       </c>
       <c r="M53" s="7">
         <v>549</v>
@@ -8864,13 +8993,13 @@
         <v>587007</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>649</v>
+        <v>686</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>650</v>
+        <v>687</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>651</v>
+        <v>688</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8885,13 +9014,13 @@
         <v>1780291</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>652</v>
+        <v>689</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>653</v>
+        <v>690</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>654</v>
+        <v>691</v>
       </c>
       <c r="H54" s="7">
         <v>1721</v>
@@ -8900,13 +9029,13 @@
         <v>1851828</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>655</v>
+        <v>692</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>656</v>
+        <v>693</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>654</v>
+        <v>691</v>
       </c>
       <c r="M54" s="7">
         <v>3401</v>
@@ -8915,13 +9044,13 @@
         <v>3632119</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>657</v>
+        <v>694</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>658</v>
+        <v>695</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>659</v>
+        <v>696</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8936,13 +9065,13 @@
         <v>1169364</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>491</v>
+        <v>697</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>660</v>
+        <v>698</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
       <c r="H55" s="7">
         <v>1190</v>
@@ -8951,13 +9080,13 @@
         <v>1290376</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>662</v>
+        <v>700</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>663</v>
+        <v>701</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>664</v>
+        <v>702</v>
       </c>
       <c r="M55" s="7">
         <v>2275</v>
@@ -8966,13 +9095,13 @@
         <v>2459740</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>665</v>
+        <v>703</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>666</v>
+        <v>704</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>667</v>
+        <v>705</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8987,10 +9116,10 @@
         <v>94077</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>668</v>
+        <v>706</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>669</v>
+        <v>707</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>59</v>
@@ -9002,13 +9131,13 @@
         <v>100964</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>670</v>
+        <v>708</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>671</v>
+        <v>709</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>672</v>
+        <v>710</v>
       </c>
       <c r="M56" s="7">
         <v>179</v>
@@ -9020,7 +9149,7 @@
         <v>392</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>499</v>
+        <v>711</v>
       </c>
       <c r="Q56" s="7" t="s">
         <v>144</v>
@@ -9103,7 +9232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CBC805-EBC8-4DDC-B7A1-10A79CAA2D39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA85972-9B39-45EC-8B4A-98B2F3CC07AA}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9120,7 +9249,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9227,13 +9356,13 @@
         <v>18086</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>674</v>
+        <v>713</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -9242,13 +9371,13 @@
         <v>12317</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>676</v>
+        <v>715</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>677</v>
+        <v>716</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>678</v>
+        <v>717</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -9257,13 +9386,13 @@
         <v>30403</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>680</v>
+        <v>719</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>681</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9278,13 +9407,13 @@
         <v>35135</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>682</v>
+        <v>721</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>683</v>
+        <v>722</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>684</v>
+        <v>723</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -9293,13 +9422,13 @@
         <v>27374</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>685</v>
+        <v>724</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>686</v>
+        <v>725</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>687</v>
+        <v>726</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -9308,13 +9437,13 @@
         <v>62510</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>688</v>
+        <v>727</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>689</v>
+        <v>728</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>690</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9329,13 +9458,13 @@
         <v>160854</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>691</v>
+        <v>730</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>693</v>
+        <v>732</v>
       </c>
       <c r="H6" s="7">
         <v>158</v>
@@ -9344,13 +9473,13 @@
         <v>163742</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>694</v>
+        <v>733</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>695</v>
+        <v>734</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>696</v>
+        <v>735</v>
       </c>
       <c r="M6" s="7">
         <v>303</v>
@@ -9359,13 +9488,13 @@
         <v>324596</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>697</v>
+        <v>736</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>698</v>
+        <v>737</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>699</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9380,13 +9509,13 @@
         <v>73212</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>700</v>
+        <v>739</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>701</v>
+        <v>740</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>702</v>
+        <v>741</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -9395,13 +9524,13 @@
         <v>78620</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>703</v>
+        <v>742</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>704</v>
+        <v>743</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>705</v>
+        <v>744</v>
       </c>
       <c r="M7" s="7">
         <v>142</v>
@@ -9410,13 +9539,13 @@
         <v>151832</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>706</v>
+        <v>745</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>707</v>
+        <v>746</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>708</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9431,13 +9560,13 @@
         <v>6474</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>669</v>
+        <v>707</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>709</v>
+        <v>748</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -9449,7 +9578,7 @@
         <v>57</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>710</v>
+        <v>749</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>103</v>
@@ -9467,7 +9596,7 @@
         <v>283</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9535,7 +9664,7 @@
         <v>1793</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>145</v>
@@ -9550,13 +9679,13 @@
         <v>3880</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>713</v>
+        <v>752</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>714</v>
+        <v>753</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -9565,13 +9694,13 @@
         <v>5673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>715</v>
+        <v>509</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>713</v>
+        <v>752</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>716</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9586,13 +9715,13 @@
         <v>34779</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>717</v>
+        <v>755</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>718</v>
+        <v>756</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>719</v>
+        <v>757</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -9601,10 +9730,10 @@
         <v>41406</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>720</v>
+        <v>758</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>721</v>
+        <v>759</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>74</v>
@@ -9616,13 +9745,13 @@
         <v>76185</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>722</v>
+        <v>760</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>723</v>
+        <v>761</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>724</v>
+        <v>762</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9637,13 +9766,13 @@
         <v>262391</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>626</v>
+        <v>663</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>725</v>
+        <v>763</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>726</v>
+        <v>764</v>
       </c>
       <c r="H12" s="7">
         <v>257</v>
@@ -9652,13 +9781,13 @@
         <v>275213</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>727</v>
+        <v>765</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>728</v>
+        <v>766</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>729</v>
+        <v>767</v>
       </c>
       <c r="M12" s="7">
         <v>508</v>
@@ -9667,13 +9796,13 @@
         <v>537604</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>730</v>
+        <v>768</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>731</v>
+        <v>769</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>732</v>
+        <v>770</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9688,13 +9817,13 @@
         <v>188418</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>733</v>
+        <v>771</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>734</v>
+        <v>772</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>735</v>
+        <v>773</v>
       </c>
       <c r="H13" s="7">
         <v>161</v>
@@ -9706,10 +9835,10 @@
         <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>737</v>
+        <v>775</v>
       </c>
       <c r="M13" s="7">
         <v>336</v>
@@ -9721,10 +9850,10 @@
         <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>738</v>
+        <v>776</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>739</v>
+        <v>777</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9739,13 +9868,13 @@
         <v>14177</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>740</v>
+        <v>778</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>741</v>
+        <v>779</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -9754,13 +9883,13 @@
         <v>21794</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>742</v>
+        <v>780</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>536</v>
+        <v>573</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>743</v>
+        <v>781</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -9769,7 +9898,7 @@
         <v>35971</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>744</v>
+        <v>782</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>158</v>
@@ -9849,7 +9978,7 @@
         <v>273</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>745</v>
+        <v>783</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -9858,13 +9987,13 @@
         <v>1882</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>746</v>
+        <v>784</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>145</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>641</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -9873,7 +10002,7 @@
         <v>1882</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>747</v>
+        <v>785</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>145</v>
@@ -9894,13 +10023,13 @@
         <v>41010</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>748</v>
+        <v>786</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>724</v>
+        <v>762</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -9909,13 +10038,13 @@
         <v>38021</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>750</v>
+        <v>788</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>751</v>
+        <v>789</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>752</v>
+        <v>790</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
@@ -9924,13 +10053,13 @@
         <v>79030</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>753</v>
+        <v>791</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>754</v>
+        <v>792</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9945,13 +10074,13 @@
         <v>235166</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>755</v>
+        <v>793</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>756</v>
+        <v>794</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>757</v>
+        <v>795</v>
       </c>
       <c r="H18" s="7">
         <v>240</v>
@@ -9960,13 +10089,13 @@
         <v>244067</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>758</v>
+        <v>796</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>760</v>
+        <v>798</v>
       </c>
       <c r="M18" s="7">
         <v>488</v>
@@ -9975,13 +10104,13 @@
         <v>479233</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>761</v>
+        <v>799</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>762</v>
+        <v>800</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>763</v>
+        <v>801</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9996,13 +10125,13 @@
         <v>42390</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>764</v>
+        <v>802</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>765</v>
+        <v>803</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>766</v>
+        <v>804</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -10011,13 +10140,13 @@
         <v>52339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>767</v>
+        <v>805</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>768</v>
+        <v>806</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>769</v>
+        <v>807</v>
       </c>
       <c r="M19" s="7">
         <v>96</v>
@@ -10026,13 +10155,13 @@
         <v>94729</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>770</v>
+        <v>808</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>771</v>
+        <v>809</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>772</v>
+        <v>810</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10053,7 +10182,7 @@
         <v>273</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>745</v>
+        <v>783</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -10083,7 +10212,7 @@
         <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>747</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10151,13 +10280,13 @@
         <v>9443</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>773</v>
+        <v>811</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>774</v>
+        <v>812</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -10169,10 +10298,10 @@
         <v>361</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>775</v>
+        <v>813</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>776</v>
+        <v>814</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -10184,10 +10313,10 @@
         <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>777</v>
+        <v>815</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10202,13 +10331,13 @@
         <v>18509</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>778</v>
+        <v>816</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>779</v>
+        <v>817</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -10217,13 +10346,13 @@
         <v>23227</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>636</v>
+        <v>673</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>782</v>
+        <v>820</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -10232,13 +10361,13 @@
         <v>41736</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>783</v>
+        <v>537</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>784</v>
+        <v>821</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>785</v>
+        <v>822</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10253,13 +10382,13 @@
         <v>240523</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>786</v>
+        <v>823</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>787</v>
+        <v>824</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>788</v>
+        <v>825</v>
       </c>
       <c r="H24" s="7">
         <v>218</v>
@@ -10268,13 +10397,13 @@
         <v>234596</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>789</v>
+        <v>826</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>790</v>
+        <v>827</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>791</v>
+        <v>828</v>
       </c>
       <c r="M24" s="7">
         <v>448</v>
@@ -10283,13 +10412,13 @@
         <v>475119</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>792</v>
+        <v>829</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>793</v>
+        <v>830</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>794</v>
+        <v>831</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10304,13 +10433,13 @@
         <v>92765</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>795</v>
+        <v>832</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>796</v>
+        <v>833</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>797</v>
+        <v>834</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -10319,13 +10448,13 @@
         <v>116896</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>798</v>
+        <v>835</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>799</v>
+        <v>836</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>497</v>
+        <v>837</v>
       </c>
       <c r="M25" s="7">
         <v>196</v>
@@ -10337,10 +10466,10 @@
         <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>800</v>
+        <v>838</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>801</v>
+        <v>839</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10355,13 +10484,13 @@
         <v>7749</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>802</v>
+        <v>840</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>803</v>
+        <v>841</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>804</v>
+        <v>842</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -10370,13 +10499,13 @@
         <v>5616</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>805</v>
+        <v>843</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>806</v>
+        <v>844</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>807</v>
+        <v>845</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -10388,10 +10517,10 @@
         <v>322</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>808</v>
+        <v>846</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>809</v>
+        <v>847</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10480,7 +10609,7 @@
         <v>273</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>571</v>
+        <v>609</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -10495,7 +10624,7 @@
         <v>273</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>810</v>
+        <v>848</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10516,7 +10645,7 @@
         <v>148</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -10531,7 +10660,7 @@
         <v>15</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -10540,13 +10669,13 @@
         <v>6643</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>811</v>
+        <v>849</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>812</v>
+        <v>850</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>813</v>
+        <v>851</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10561,13 +10690,13 @@
         <v>127422</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>814</v>
+        <v>852</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>815</v>
+        <v>853</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>816</v>
+        <v>854</v>
       </c>
       <c r="H30" s="7">
         <v>140</v>
@@ -10576,13 +10705,13 @@
         <v>138474</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>817</v>
+        <v>855</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>818</v>
+        <v>521</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>819</v>
+        <v>856</v>
       </c>
       <c r="M30" s="7">
         <v>268</v>
@@ -10591,13 +10720,13 @@
         <v>265896</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>820</v>
+        <v>857</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>821</v>
+        <v>858</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>822</v>
+        <v>859</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10612,13 +10741,13 @@
         <v>73674</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>823</v>
+        <v>860</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>824</v>
+        <v>861</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>825</v>
+        <v>862</v>
       </c>
       <c r="H31" s="7">
         <v>70</v>
@@ -10627,13 +10756,13 @@
         <v>67510</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>826</v>
+        <v>863</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>827</v>
+        <v>864</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>828</v>
+        <v>423</v>
       </c>
       <c r="M31" s="7">
         <v>145</v>
@@ -10642,13 +10771,13 @@
         <v>141184</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>829</v>
+        <v>865</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>830</v>
+        <v>866</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>831</v>
+        <v>867</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10663,13 +10792,13 @@
         <v>4867</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>832</v>
+        <v>868</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>113</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>833</v>
+        <v>869</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -10678,13 +10807,13 @@
         <v>9707</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>834</v>
+        <v>870</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>836</v>
+        <v>872</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -10693,13 +10822,13 @@
         <v>14574</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>837</v>
+        <v>873</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>838</v>
+        <v>874</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10767,13 +10896,13 @@
         <v>10453</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>839</v>
+        <v>875</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>840</v>
+        <v>876</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -10788,7 +10917,7 @@
         <v>106</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>841</v>
+        <v>877</v>
       </c>
       <c r="M34" s="7">
         <v>21</v>
@@ -10797,13 +10926,13 @@
         <v>21526</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>842</v>
+        <v>878</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>843</v>
+        <v>879</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>844</v>
+        <v>880</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10818,13 +10947,13 @@
         <v>29950</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>845</v>
+        <v>881</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>846</v>
+        <v>882</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>847</v>
+        <v>408</v>
       </c>
       <c r="H35" s="7">
         <v>26</v>
@@ -10833,13 +10962,13 @@
         <v>27165</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>848</v>
+        <v>883</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>849</v>
+        <v>397</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>850</v>
+        <v>884</v>
       </c>
       <c r="M35" s="7">
         <v>55</v>
@@ -10848,13 +10977,13 @@
         <v>57115</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>851</v>
+        <v>885</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>852</v>
+        <v>886</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10869,13 +10998,13 @@
         <v>181799</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>853</v>
+        <v>887</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>854</v>
+        <v>888</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>855</v>
+        <v>889</v>
       </c>
       <c r="H36" s="7">
         <v>190</v>
@@ -10884,13 +11013,13 @@
         <v>196647</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>856</v>
+        <v>890</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>857</v>
+        <v>891</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>858</v>
+        <v>892</v>
       </c>
       <c r="M36" s="7">
         <v>370</v>
@@ -10899,13 +11028,13 @@
         <v>378445</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>859</v>
+        <v>893</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>860</v>
+        <v>894</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>861</v>
+        <v>895</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10920,13 +11049,13 @@
         <v>40017</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>862</v>
+        <v>896</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>863</v>
+        <v>511</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>864</v>
+        <v>897</v>
       </c>
       <c r="H37" s="7">
         <v>34</v>
@@ -10935,13 +11064,13 @@
         <v>34989</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>865</v>
+        <v>898</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>866</v>
+        <v>899</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="M37" s="7">
         <v>72</v>
@@ -10950,13 +11079,13 @@
         <v>75006</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>850</v>
+        <v>884</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>868</v>
+        <v>901</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>869</v>
+        <v>902</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10977,7 +11106,7 @@
         <v>273</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -10986,13 +11115,13 @@
         <v>2300</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>870</v>
+        <v>903</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>145</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>871</v>
+        <v>904</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -11075,13 +11204,13 @@
         <v>12140</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>511</v>
+        <v>548</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>872</v>
+        <v>905</v>
       </c>
       <c r="H40" s="7">
         <v>14</v>
@@ -11090,13 +11219,13 @@
         <v>15326</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>873</v>
+        <v>906</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>874</v>
+        <v>539</v>
       </c>
       <c r="M40" s="7">
         <v>25</v>
@@ -11108,10 +11237,10 @@
         <v>365</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11126,13 +11255,13 @@
         <v>127361</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>875</v>
+        <v>907</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>876</v>
+        <v>908</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>877</v>
+        <v>909</v>
       </c>
       <c r="H41" s="7">
         <v>100</v>
@@ -11141,13 +11270,13 @@
         <v>107331</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>878</v>
+        <v>910</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>879</v>
+        <v>911</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>880</v>
+        <v>912</v>
       </c>
       <c r="M41" s="7">
         <v>212</v>
@@ -11156,13 +11285,13 @@
         <v>234692</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>881</v>
+        <v>913</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>882</v>
+        <v>914</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>883</v>
+        <v>915</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11177,13 +11306,13 @@
         <v>367809</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>517</v>
+        <v>554</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>884</v>
+        <v>916</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>885</v>
+        <v>917</v>
       </c>
       <c r="H42" s="7">
         <v>364</v>
@@ -11192,13 +11321,13 @@
         <v>388239</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>886</v>
+        <v>918</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>887</v>
+        <v>919</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>888</v>
+        <v>920</v>
       </c>
       <c r="M42" s="7">
         <v>689</v>
@@ -11210,10 +11339,10 @@
         <v>128</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>889</v>
+        <v>921</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>890</v>
+        <v>922</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11228,13 +11357,13 @@
         <v>141062</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>891</v>
+        <v>923</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>892</v>
+        <v>924</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>795</v>
+        <v>832</v>
       </c>
       <c r="H43" s="7">
         <v>159</v>
@@ -11243,13 +11372,13 @@
         <v>171110</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>893</v>
+        <v>925</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>894</v>
+        <v>926</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>895</v>
+        <v>927</v>
       </c>
       <c r="M43" s="7">
         <v>284</v>
@@ -11258,13 +11387,13 @@
         <v>312171</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>896</v>
+        <v>928</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>897</v>
+        <v>929</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>898</v>
+        <v>930</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11279,13 +11408,13 @@
         <v>4996</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>775</v>
+        <v>813</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>245</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>899</v>
+        <v>931</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -11294,13 +11423,13 @@
         <v>7296</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>901</v>
+        <v>933</v>
       </c>
       <c r="M44" s="7">
         <v>11</v>
@@ -11309,13 +11438,13 @@
         <v>12291</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>902</v>
+        <v>934</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>197</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11383,13 +11512,13 @@
         <v>1842</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>903</v>
+        <v>935</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>145</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>904</v>
+        <v>936</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -11398,10 +11527,10 @@
         <v>3010</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>905</v>
+        <v>937</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>283</v>
@@ -11416,7 +11545,7 @@
         <v>52</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>906</v>
+        <v>938</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>98</v>
@@ -11434,13 +11563,13 @@
         <v>37790</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>907</v>
+        <v>939</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="H47" s="7">
         <v>35</v>
@@ -11449,13 +11578,13 @@
         <v>37940</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>741</v>
+        <v>779</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>871</v>
+        <v>904</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>674</v>
+        <v>713</v>
       </c>
       <c r="M47" s="7">
         <v>71</v>
@@ -11467,10 +11596,10 @@
         <v>115</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>636</v>
+        <v>673</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>612</v>
+        <v>649</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11485,13 +11614,13 @@
         <v>478889</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>908</v>
+        <v>940</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>909</v>
+        <v>941</v>
       </c>
       <c r="H48" s="7">
         <v>444</v>
@@ -11500,13 +11629,13 @@
         <v>480707</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>910</v>
+        <v>942</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>911</v>
+        <v>943</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>912</v>
+        <v>944</v>
       </c>
       <c r="M48" s="7">
         <v>910</v>
@@ -11515,13 +11644,13 @@
         <v>959596</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>888</v>
+        <v>920</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>913</v>
+        <v>945</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>914</v>
+        <v>946</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -11536,13 +11665,13 @@
         <v>257105</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>915</v>
+        <v>427</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>916</v>
+        <v>947</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>917</v>
+        <v>948</v>
       </c>
       <c r="H49" s="7">
         <v>262</v>
@@ -11551,13 +11680,13 @@
         <v>292925</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>918</v>
+        <v>949</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>919</v>
+        <v>950</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>920</v>
+        <v>951</v>
       </c>
       <c r="M49" s="7">
         <v>505</v>
@@ -11566,13 +11695,13 @@
         <v>550031</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>492</v>
+        <v>952</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>921</v>
+        <v>953</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>922</v>
+        <v>954</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -11587,13 +11716,13 @@
         <v>1869</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>903</v>
+        <v>935</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>145</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>904</v>
+        <v>936</v>
       </c>
       <c r="H50" s="7">
         <v>10</v>
@@ -11605,10 +11734,10 @@
         <v>194</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>923</v>
+        <v>955</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>832</v>
+        <v>868</v>
       </c>
       <c r="M50" s="7">
         <v>12</v>
@@ -11617,10 +11746,10 @@
         <v>12473</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>924</v>
+        <v>956</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>925</v>
+        <v>957</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>191</v>
@@ -11691,7 +11820,7 @@
         <v>53757</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>926</v>
+        <v>958</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>55</v>
@@ -11706,13 +11835,13 @@
         <v>54436</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>927</v>
+        <v>959</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>928</v>
+        <v>960</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="M52" s="7">
         <v>103</v>
@@ -11721,13 +11850,13 @@
         <v>108193</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>929</v>
+        <v>961</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>930</v>
+        <v>962</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>714</v>
+        <v>753</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -11742,13 +11871,13 @@
         <v>328281</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>931</v>
+        <v>963</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>932</v>
+        <v>964</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>933</v>
+        <v>965</v>
       </c>
       <c r="H53" s="7">
         <v>291</v>
@@ -11757,13 +11886,13 @@
         <v>305359</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>934</v>
+        <v>966</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>935</v>
+        <v>430</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>936</v>
+        <v>967</v>
       </c>
       <c r="M53" s="7">
         <v>597</v>
@@ -11772,13 +11901,13 @@
         <v>633640</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>937</v>
+        <v>968</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>579</v>
+        <v>617</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>938</v>
+        <v>969</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -11793,13 +11922,13 @@
         <v>2054853</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>939</v>
+        <v>970</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>940</v>
+        <v>971</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>941</v>
+        <v>972</v>
       </c>
       <c r="H54" s="7">
         <v>2011</v>
@@ -11808,13 +11937,13 @@
         <v>2121685</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>942</v>
+        <v>973</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>943</v>
+        <v>974</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>944</v>
+        <v>975</v>
       </c>
       <c r="M54" s="7">
         <v>3984</v>
@@ -11826,10 +11955,10 @@
         <v>172</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>945</v>
+        <v>976</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>946</v>
+        <v>977</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -11844,13 +11973,13 @@
         <v>908642</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>947</v>
+        <v>978</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>948</v>
+        <v>979</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>949</v>
+        <v>980</v>
       </c>
       <c r="H55" s="7">
         <v>918</v>
@@ -11859,13 +11988,13 @@
         <v>993085</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>950</v>
+        <v>981</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>951</v>
+        <v>982</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>952</v>
+        <v>983</v>
       </c>
       <c r="M55" s="7">
         <v>1776</v>
@@ -11874,10 +12003,10 @@
         <v>1901728</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>953</v>
+        <v>984</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>954</v>
+        <v>985</v>
       </c>
       <c r="Q55" s="7" t="s">
         <v>184</v>
@@ -11898,10 +12027,10 @@
         <v>320</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>955</v>
+        <v>986</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>956</v>
+        <v>987</v>
       </c>
       <c r="H56" s="7">
         <v>59</v>
@@ -11913,10 +12042,10 @@
         <v>246</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>642</v>
+        <v>679</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>832</v>
+        <v>868</v>
       </c>
       <c r="M56" s="7">
         <v>94</v>
@@ -11925,7 +12054,7 @@
         <v>103012</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>957</v>
+        <v>988</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>18</v>
